--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Redação do Capítulo 2</t>
   </si>
@@ -470,7 +470,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -771,7 +771,9 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="Q11" s="2"/>
     </row>
   </sheetData>
@@ -782,7 +784,6 @@
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Redação do Capítulo 2</t>
   </si>
@@ -470,7 +470,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -597,7 +597,9 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -618,13 +620,13 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -645,13 +647,13 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -672,10 +674,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -696,13 +698,13 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -723,10 +725,10 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
@@ -747,10 +749,10 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17">
@@ -771,10 +773,10 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
